--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudeep\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThinkRoman\tr-form-builder\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEFEF6B-F2ED-4C8A-AE94-252747F4CFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BB7AFE-934E-472E-B565-4EC97D3C7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{A403C1DB-ECA8-4944-8FBC-748F313147BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B60A374B-80DF-4A1C-9BB3-70A3B7EB4B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,22 +38,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>placeholder</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>text</t>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>REQUIRED</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -424,16 +424,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699E18F0-705D-4221-A3A5-5CAE1DA5B532}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E7F5EA-DE74-4BF8-B5D5-014990DEFAB1}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,25 +451,22 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{8159B71D-A2BA-473C-B3E8-56E9A606B95D}">
-      <formula1>"text,checkbox,radio,select,textarea,email,number,url,date,time,tel,upload"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{1718AD9D-7EF8-4817-9124-281E5E835453}">
+      <formula1>"TEXT, TEXTAREA, NUMBER, EMAIL, PHONE, URL, DATE, CHECKBOX, UPLOAD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{17BF8624-AE3E-4C05-B1F5-D075CC87AA39}">
-      <formula1>"true,false"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{7372236B-C1A2-46A1-9706-A18E6DCF93C1}">
+      <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
